--- a/bicicletas.xlsx
+++ b/bicicletas.xlsx
@@ -14,15 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>AÑO_MES</t>
   </si>
   <si>
-    <t>TIPO</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
+    <t>BICICLETAS</t>
   </si>
   <si>
     <t>202001</t>
@@ -74,9 +71,6 @@
   </si>
   <si>
     <t>202106</t>
-  </si>
-  <si>
-    <t>BICICLETAS</t>
   </si>
 </sst>
 </file>
@@ -437,210 +431,156 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1">
+        <v>159233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="1">
-        <v>159233</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1">
+        <v>116965</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="1">
-        <v>116965</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1">
+        <v>52951</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="1">
-        <v>52951</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1">
+        <v>20235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="1">
-        <v>20235</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1">
+        <v>69707</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1">
-        <v>69707</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="1">
+        <v>98328</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="1">
-        <v>98328</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="1">
+        <v>248180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="1">
-        <v>248180</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="1">
+        <v>273719</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="1">
-        <v>273719</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="1">
+        <v>323130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="1">
-        <v>323130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="1">
+        <v>332410</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="1">
-        <v>332410</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="1">
+        <v>308087</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="1">
-        <v>308087</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="1">
+        <v>277277</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="1">
-        <v>277277</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="1">
+        <v>312790</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="1">
-        <v>312790</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="1">
+        <v>300889</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="1">
-        <v>300889</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="1">
+        <v>235238</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="1">
-        <v>235238</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="1">
+        <v>193235</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="1">
-        <v>193235</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="1">
+      <c r="B18" s="1">
         <v>9297</v>
       </c>
     </row>

--- a/bicicletas.xlsx
+++ b/bicicletas.xlsx
@@ -14,63 +14,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>AÑO_MES</t>
   </si>
   <si>
+    <t>TIPO</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>202001</t>
+  </si>
+  <si>
+    <t>202002</t>
+  </si>
+  <si>
+    <t>202003</t>
+  </si>
+  <si>
+    <t>202005</t>
+  </si>
+  <si>
+    <t>202006</t>
+  </si>
+  <si>
+    <t>202007</t>
+  </si>
+  <si>
+    <t>202008</t>
+  </si>
+  <si>
+    <t>202009</t>
+  </si>
+  <si>
+    <t>202010</t>
+  </si>
+  <si>
+    <t>202011</t>
+  </si>
+  <si>
+    <t>202012</t>
+  </si>
+  <si>
     <t>BICICLETAS</t>
-  </si>
-  <si>
-    <t>202001</t>
-  </si>
-  <si>
-    <t>202002</t>
-  </si>
-  <si>
-    <t>202003</t>
-  </si>
-  <si>
-    <t>202005</t>
-  </si>
-  <si>
-    <t>202006</t>
-  </si>
-  <si>
-    <t>202007</t>
-  </si>
-  <si>
-    <t>202008</t>
-  </si>
-  <si>
-    <t>202009</t>
-  </si>
-  <si>
-    <t>202010</t>
-  </si>
-  <si>
-    <t>202011</t>
-  </si>
-  <si>
-    <t>202012</t>
-  </si>
-  <si>
-    <t>202101</t>
-  </si>
-  <si>
-    <t>202102</t>
-  </si>
-  <si>
-    <t>202103</t>
-  </si>
-  <si>
-    <t>202104</t>
-  </si>
-  <si>
-    <t>202105</t>
-  </si>
-  <si>
-    <t>202106</t>
   </si>
 </sst>
 </file>
@@ -431,157 +419,145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="3" width="30.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1">
         <v>159233</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1">
         <v>116965</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1">
         <v>52951</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1">
         <v>20235</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1">
         <v>69707</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1">
         <v>98328</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1">
         <v>248180</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1">
         <v>273719</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1">
         <v>323130</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1">
         <v>332410</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1">
         <v>308087</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1">
-        <v>277277</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1">
-        <v>312790</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="1">
-        <v>300889</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="1">
-        <v>235238</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="1">
-        <v>193235</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="1">
-        <v>9297</v>
       </c>
     </row>
   </sheetData>

--- a/bicicletas.xlsx
+++ b/bicicletas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>AÑO_MES</t>
   </si>
@@ -34,6 +34,9 @@
     <t>202003</t>
   </si>
   <si>
+    <t>202004</t>
+  </si>
+  <si>
     <t>202005</t>
   </si>
   <si>
@@ -59,6 +62,12 @@
   </si>
   <si>
     <t>BICICLETAS</t>
+  </si>
+  <si>
+    <t>BICICLETAs</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -419,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,7 +453,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1">
         <v>159233</v>
@@ -455,7 +464,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1">
         <v>116965</v>
@@ -466,7 +475,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1">
         <v>52951</v>
@@ -477,10 +486,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1">
-        <v>20235</v>
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -488,10 +497,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1">
-        <v>69707</v>
+        <v>20235</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -499,10 +508,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1">
-        <v>98328</v>
+        <v>69707</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -510,10 +519,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1">
-        <v>248180</v>
+        <v>98328</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -521,10 +530,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1">
-        <v>273719</v>
+        <v>248180</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -532,10 +541,10 @@
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1">
-        <v>323130</v>
+        <v>273719</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -543,10 +552,10 @@
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1">
-        <v>332410</v>
+        <v>323130</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -554,9 +563,20 @@
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1">
+        <v>332410</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="1">
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1">
         <v>308087</v>
       </c>
     </row>

--- a/bicicletas.xlsx
+++ b/bicicletas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
   <si>
     <t>AÑO_MES</t>
   </si>
@@ -62,12 +62,6 @@
   </si>
   <si>
     <t>BICICLETAS</t>
-  </si>
-  <si>
-    <t>BICICLETAs</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
 </sst>
 </file>
@@ -486,10 +480,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">

--- a/bicicletas.xlsx
+++ b/bicicletas.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="6">
   <si>
-    <t>AÑO_MES</t>
+    <t>AÑO</t>
+  </si>
+  <si>
+    <t>MES</t>
   </si>
   <si>
     <t>TIPO</t>
@@ -25,43 +28,10 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>202001</t>
+    <t>BICICLETAS</t>
   </si>
   <si>
-    <t>202002</t>
-  </si>
-  <si>
-    <t>202003</t>
-  </si>
-  <si>
-    <t>202004</t>
-  </si>
-  <si>
-    <t>202005</t>
-  </si>
-  <si>
-    <t>202006</t>
-  </si>
-  <si>
-    <t>202007</t>
-  </si>
-  <si>
-    <t>202008</t>
-  </si>
-  <si>
-    <t>202009</t>
-  </si>
-  <si>
-    <t>202010</t>
-  </si>
-  <si>
-    <t>202011</t>
-  </si>
-  <si>
-    <t>202012</t>
-  </si>
-  <si>
-    <t>BICICLETAS</t>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -422,16 +392,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="4" width="30.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -441,136 +411,175 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1">
         <v>159233</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1">
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1">
         <v>116965</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>52951</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1">
-        <v>52951</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>20235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B7" s="1">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1">
+        <v>69707</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B8" s="1">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1">
-        <v>20235</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>98328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B9" s="1">
         <v>8</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1">
-        <v>69707</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1">
+        <v>248180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B10" s="1">
         <v>9</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="1">
-        <v>98328</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1">
+        <v>273719</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B11" s="1">
         <v>10</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="1">
-        <v>248180</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1">
+        <v>323130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B12" s="1">
         <v>11</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="1">
-        <v>273719</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1">
+        <v>332410</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B13" s="1">
         <v>12</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="1">
-        <v>323130</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="1">
-        <v>332410</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="C13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1">
         <v>308087</v>
       </c>
     </row>

--- a/bicicletas.xlsx
+++ b/bicicletas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="5">
   <si>
     <t>AÑO</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>BICICLETAS</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
 </sst>
 </file>
@@ -426,7 +423,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="1">
-        <v>159233</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -440,7 +437,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="1">
-        <v>116965</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -454,7 +451,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="1">
-        <v>52951</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -467,8 +464,8 @@
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
+      <c r="D5" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -482,7 +479,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="1">
-        <v>20235</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -496,7 +493,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="1">
-        <v>69707</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -510,7 +507,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="1">
-        <v>98328</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -524,7 +521,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="1">
-        <v>248180</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -538,7 +535,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="1">
-        <v>273719</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -552,7 +549,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="1">
-        <v>323130</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -566,7 +563,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="1">
-        <v>332410</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -580,7 +577,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="1">
-        <v>308087</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/bicicletas.xlsx
+++ b/bicicletas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="8">
   <si>
     <t>AÑO</t>
   </si>
@@ -28,7 +28,16 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>BICICLETAS</t>
+    <t>INTERVALO</t>
+  </si>
+  <si>
+    <t>DICIEMBRE_ENERO</t>
+  </si>
+  <si>
+    <t>Bicicletas</t>
+  </si>
+  <si>
+    <t>+93 %</t>
   </si>
 </sst>
 </file>
@@ -389,16 +398,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="6" width="30.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -411,8 +420,14 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>2020</v>
       </c>
@@ -420,13 +435,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1">
+        <v>159233</v>
+      </c>
+      <c r="E2" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2020</v>
       </c>
@@ -434,13 +455,19 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1">
+        <v>116965</v>
+      </c>
+      <c r="E3" s="1">
         <v>4</v>
       </c>
-      <c r="D3" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2020</v>
       </c>
@@ -448,13 +475,19 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1">
+        <v>52951</v>
+      </c>
+      <c r="E4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>2020</v>
       </c>
@@ -462,13 +495,19 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="F5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>2020</v>
       </c>
@@ -476,13 +515,19 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1">
+        <v>20235</v>
+      </c>
+      <c r="E6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="F6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>2020</v>
       </c>
@@ -490,13 +535,19 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1">
+        <v>69707</v>
+      </c>
+      <c r="E7" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="F7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>2020</v>
       </c>
@@ -504,13 +555,19 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1">
+        <v>98328</v>
+      </c>
+      <c r="E8" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="F8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>2020</v>
       </c>
@@ -518,13 +575,19 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1">
+        <v>248180</v>
+      </c>
+      <c r="E9" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="F9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>2020</v>
       </c>
@@ -532,13 +595,19 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1">
+        <v>273719</v>
+      </c>
+      <c r="E10" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="F10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>2020</v>
       </c>
@@ -546,13 +615,19 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D11" s="1">
+        <v>323130</v>
+      </c>
+      <c r="E11" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="F11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>2020</v>
       </c>
@@ -560,13 +635,19 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D12" s="1">
+        <v>332410</v>
+      </c>
+      <c r="E12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="F12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>2020</v>
       </c>
@@ -574,10 +655,16 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D13" s="1">
+        <v>308087</v>
+      </c>
+      <c r="E13" s="1">
         <v>10</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/bicicletas.xlsx
+++ b/bicicletas.xlsx
@@ -37,7 +37,7 @@
     <t>Bicicletas</t>
   </si>
   <si>
-    <t>+93 %</t>
+    <t>+100 %</t>
   </si>
 </sst>
 </file>

--- a/bicicletas.xlsx
+++ b/bicicletas.xlsx
@@ -16,22 +16,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="8">
   <si>
-    <t>AÑO</t>
-  </si>
-  <si>
-    <t>MES</t>
-  </si>
-  <si>
-    <t>TIPO</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>INTERVALO</t>
-  </si>
-  <si>
-    <t>DICIEMBRE_ENERO</t>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Mes</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Intervalo</t>
+  </si>
+  <si>
+    <t>Diciembre Vs Enero</t>
   </si>
   <si>
     <t>Bicicletas</t>
